--- a/毕业论文/Table/Table_2.xlsx
+++ b/毕业论文/Table/Table_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master-s-thesis\Master-s-thesis\毕业论文\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\毕业论文\Master-s-thesis\毕业论文\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5DE76C-0595-4B0E-B871-A1320CD7C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4813AE92-4B11-4861-8432-54AE5B6A20EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,17 +474,17 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -509,7 +509,7 @@
         <v>-1303.69561651665</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -520,7 +520,7 @@
         <v>0.2311</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -531,7 +531,7 @@
         <v>0.3977</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -542,7 +542,7 @@
         <v>0.1047</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -553,7 +553,7 @@
         <v>0.44309999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -578,7 +578,7 @@
         <v>-107.178</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -600,7 +600,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0.25869999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0.31069999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -647,7 +647,7 @@
         <v>-107.178</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -658,7 +658,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0.25869999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -691,7 +691,7 @@
         <v>0.31069999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -707,7 +707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -715,7 +715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -723,7 +723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -731,7 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -747,7 +747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>

--- a/毕业论文/Table/Table_2.xlsx
+++ b/毕业论文/Table/Table_2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\毕业论文\Master-s-thesis\毕业论文\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4813AE92-4B11-4861-8432-54AE5B6A20EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C685282-DD3C-4F07-AA3B-A3709F24E643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>森林中树木的数量，即基本评估器的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,16 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -755,6 +767,63 @@
         <v>26</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1">
+        <v>375.82650000000001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-107.178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <v>31.339099999999998</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>17.5594</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>23.467300000000002</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.25869999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>25.013000000000002</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.31069999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
